--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/BrokenMarkets/1CraftbetE-sportsDataErrorMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/BrokenMarkets/1CraftbetE-sportsDataErrorMarketsList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>This market works for Client  GameID = 3739611  MarketName = Correct Score</t>
   </si>
@@ -20,16 +20,10 @@
     <t>This market works for Client  GameID = 3739633  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3739410  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738608  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738642  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3733012  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3742274  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742275  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3733013  MarketName = Correct Score</t>
@@ -44,19 +38,13 @@
     <t>This market works for Client  GameID = 3733021  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3737024  MarketName = Correct Score</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3739509  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3734636  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738615  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738617  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3739512  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742582  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3688770  MarketName = Correct Score</t>
@@ -80,22 +68,25 @@
     <t>This market works for Client  GameID = 3724523  MarketName = Correct Score</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3739510  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739513  MarketName = Correct Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3739514  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3739516  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3731437  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3731435  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3731436  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736183  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3739519  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740429  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742276  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3739608  MarketName = Correct Score</t>
@@ -104,40 +95,100 @@
     <t>This market works for Client  GameID = 3739613  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3739624  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736046  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739409  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3733031  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738616  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3741935  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741936  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741937  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741938  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741939  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741940  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741941  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741942  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741951  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741952  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741961  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741968  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741970  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741974  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741977  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741978  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742008  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742009  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742010  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742012  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742014  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742016  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742017  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742061  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3739610  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3736313  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738610  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738613  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3742729  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739620  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3738614  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3735382  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739407  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3742270  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742271  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742273  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742278  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715072  MarketName = Correct Score</t>
@@ -152,19 +203,16 @@
     <t>This market works for Client  GameID = 3715057  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3715059  MarketName = Correct Score</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3715065  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715067  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3737074  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738635  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3740434  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742026  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715075  MarketName = Correct Score</t>
@@ -176,21 +224,21 @@
     <t>This market works for Client  GameID = 3715090  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3736051  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736052  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738609  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739404  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3742060  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742269  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3743297  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715063  MarketName = Correct Score</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3715068  MarketName = Correct Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3715069  MarketName = Correct Score</t>
   </si>
   <si>
@@ -203,13 +251,16 @@
     <t>This market works for Client  GameID = 3715082  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3739408  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739417  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3726723  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3742039  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742040  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742062  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742063  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3726724  MarketName = Correct Score</t>
@@ -227,6 +278,9 @@
     <t>This market works for Client  GameID = 3726728  MarketName = Correct Score</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3726729  MarketName = Correct Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3726730  MarketName = Correct Score</t>
   </si>
   <si>
@@ -242,15 +296,6 @@
     <t>This market works for Client  GameID = 3726734  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3726735  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3726736  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3726737  MarketName = Correct Score</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3726738  MarketName = Correct Score</t>
   </si>
   <si>
@@ -269,31 +314,43 @@
     <t>This market works for Client  GameID = 3726744  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3726745  MarketName = Correct Score</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3726746  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3726747  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736235  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736238  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3719092  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3719095  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3719096  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3719097  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3740337  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740431  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740435  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740437  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741071  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741073  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741075  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741078  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741080  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741087  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741090  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741092  MarketName = Correct Score</t>
   </si>
   <si>
     <t>3715136  This game has no available Markets</t>
@@ -326,46 +383,22 @@
     <t>This market works for Client  GameID = 3656480  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3732004  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736041  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736042  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3742580  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742595  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742596  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3742597  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3738611  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3729332  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3729336  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737475  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737476  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737477  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737478  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737479  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737480  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739609  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739615  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3738612  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715094  MarketName = Correct Score</t>
@@ -545,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A163"/>
+  <dimension ref="A1:A174"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1369,6 +1402,61 @@
         <v>162</v>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
